--- a/Data/WeldingFumes_2005.xlsx
+++ b/Data/WeldingFumes_2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviapeterson/Downloads/Emory /Fall 2024 Semester/EPI590R/EPI590R - Final project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87C963-8783-6C4A-9EC1-D48D87F14C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9B75D-DD1D-E841-B4E7-7E4557140278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27060" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5940" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="865">
   <si>
     <t>MINE_ID</t>
   </si>
@@ -2628,6 +2628,9 @@
   </si>
   <si>
     <t>WORKER_AMT</t>
+  </si>
+  <si>
+    <t>AGE</t>
   </si>
 </sst>
 </file>
@@ -3475,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1827F464-FCDB-1542-BDEB-09B6E7F4EAA2}">
-  <dimension ref="A1:S395"/>
+  <dimension ref="A1:T395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I378" workbookViewId="0">
+      <selection activeCell="V387" sqref="V387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3486,7 +3489,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3544,8 +3547,11 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1600352</v>
       </c>
@@ -3603,8 +3609,11 @@
       <c r="S2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1600352</v>
       </c>
@@ -3662,8 +3671,11 @@
       <c r="S3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2302010</v>
       </c>
@@ -3721,8 +3733,11 @@
       <c r="S4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2302010</v>
       </c>
@@ -3780,8 +3795,11 @@
       <c r="S5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2302010</v>
       </c>
@@ -3839,8 +3857,11 @@
       <c r="S6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2302010</v>
       </c>
@@ -3898,8 +3919,11 @@
       <c r="S7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2302010</v>
       </c>
@@ -3957,8 +3981,11 @@
       <c r="S8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2302010</v>
       </c>
@@ -4016,8 +4043,11 @@
       <c r="S9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2301601</v>
       </c>
@@ -4075,8 +4105,11 @@
       <c r="S10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2301601</v>
       </c>
@@ -4134,8 +4167,11 @@
       <c r="S11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2301601</v>
       </c>
@@ -4193,8 +4229,11 @@
       <c r="S12" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2301601</v>
       </c>
@@ -4252,8 +4291,11 @@
       <c r="S13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1600970</v>
       </c>
@@ -4311,8 +4353,11 @@
       <c r="S14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1600970</v>
       </c>
@@ -4370,8 +4415,11 @@
       <c r="S15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1600970</v>
       </c>
@@ -4429,8 +4477,11 @@
       <c r="S16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1600970</v>
       </c>
@@ -4488,8 +4539,11 @@
       <c r="S17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1600970</v>
       </c>
@@ -4547,8 +4601,11 @@
       <c r="S18">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1600970</v>
       </c>
@@ -4606,8 +4663,11 @@
       <c r="S19">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>395</v>
       </c>
@@ -4665,8 +4725,11 @@
       <c r="S20">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>395</v>
       </c>
@@ -4724,8 +4787,11 @@
       <c r="S21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>395</v>
       </c>
@@ -4783,8 +4849,11 @@
       <c r="S22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>395</v>
       </c>
@@ -4842,8 +4911,11 @@
       <c r="S23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>395</v>
       </c>
@@ -4901,8 +4973,11 @@
       <c r="S24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>395</v>
       </c>
@@ -4960,8 +5035,11 @@
       <c r="S25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>185</v>
       </c>
@@ -5019,8 +5097,11 @@
       <c r="S26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>185</v>
       </c>
@@ -5078,8 +5159,11 @@
       <c r="S27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>185</v>
       </c>
@@ -5137,8 +5221,11 @@
       <c r="S28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>185</v>
       </c>
@@ -5196,8 +5283,11 @@
       <c r="S29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>185</v>
       </c>
@@ -5255,8 +5345,11 @@
       <c r="S30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>185</v>
       </c>
@@ -5314,8 +5407,11 @@
       <c r="S31">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2601030</v>
       </c>
@@ -5373,8 +5469,11 @@
       <c r="S32">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2601030</v>
       </c>
@@ -5432,8 +5531,11 @@
       <c r="S33">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2601030</v>
       </c>
@@ -5491,8 +5593,11 @@
       <c r="S34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2601942</v>
       </c>
@@ -5550,8 +5655,11 @@
       <c r="S35" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2601942</v>
       </c>
@@ -5609,8 +5717,11 @@
       <c r="S36" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2601942</v>
       </c>
@@ -5668,8 +5779,11 @@
       <c r="S37" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2601941</v>
       </c>
@@ -5727,8 +5841,11 @@
       <c r="S38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2601941</v>
       </c>
@@ -5786,8 +5903,11 @@
       <c r="S39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>322</v>
       </c>
@@ -5845,8 +5965,11 @@
       <c r="S40" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>322</v>
       </c>
@@ -5904,8 +6027,11 @@
       <c r="S41" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>488</v>
       </c>
@@ -5963,8 +6089,11 @@
       <c r="S42">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>488</v>
       </c>
@@ -6022,8 +6151,11 @@
       <c r="S43">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3900022</v>
       </c>
@@ -6081,8 +6213,11 @@
       <c r="S44">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3900022</v>
       </c>
@@ -6140,8 +6275,11 @@
       <c r="S45">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3900008</v>
       </c>
@@ -6199,8 +6337,11 @@
       <c r="S46" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3900008</v>
       </c>
@@ -6258,8 +6399,11 @@
       <c r="S47" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3900020</v>
       </c>
@@ -6317,8 +6461,11 @@
       <c r="S48">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3900020</v>
       </c>
@@ -6376,8 +6523,11 @@
       <c r="S49">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3900020</v>
       </c>
@@ -6435,8 +6585,11 @@
       <c r="S50">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3900020</v>
       </c>
@@ -6494,8 +6647,11 @@
       <c r="S51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3900020</v>
       </c>
@@ -6553,8 +6709,11 @@
       <c r="S52">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3900020</v>
       </c>
@@ -6612,8 +6771,11 @@
       <c r="S53">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3200652</v>
       </c>
@@ -6671,8 +6833,11 @@
       <c r="S54">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3200652</v>
       </c>
@@ -6730,8 +6895,11 @@
       <c r="S55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3200652</v>
       </c>
@@ -6789,8 +6957,11 @@
       <c r="S56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3200652</v>
       </c>
@@ -6848,8 +7019,11 @@
       <c r="S57">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4202177</v>
       </c>
@@ -6907,8 +7081,11 @@
       <c r="S58">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4202177</v>
       </c>
@@ -6966,8 +7143,11 @@
       <c r="S59">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4202177</v>
       </c>
@@ -7025,8 +7205,11 @@
       <c r="S60">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4202177</v>
       </c>
@@ -7084,8 +7267,11 @@
       <c r="S61">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4200364</v>
       </c>
@@ -7143,8 +7329,11 @@
       <c r="S62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4200364</v>
       </c>
@@ -7202,8 +7391,11 @@
       <c r="S63">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1400162</v>
       </c>
@@ -7261,8 +7453,11 @@
       <c r="S64">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1400162</v>
       </c>
@@ -7320,8 +7515,11 @@
       <c r="S65">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>524</v>
       </c>
@@ -7379,8 +7577,11 @@
       <c r="S66">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>524</v>
       </c>
@@ -7438,8 +7639,11 @@
       <c r="S67">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>524</v>
       </c>
@@ -7497,8 +7701,11 @@
       <c r="S68">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>524</v>
       </c>
@@ -7556,8 +7763,11 @@
       <c r="S69">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -7615,8 +7825,11 @@
       <c r="S70">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
@@ -7674,8 +7887,11 @@
       <c r="S71">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>123</v>
       </c>
@@ -7733,8 +7949,11 @@
       <c r="S72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>123</v>
       </c>
@@ -7792,8 +8011,11 @@
       <c r="S73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>123</v>
       </c>
@@ -7851,8 +8073,11 @@
       <c r="S74">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
@@ -7910,8 +8135,11 @@
       <c r="S75">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -7969,8 +8197,11 @@
       <c r="S76">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>123</v>
       </c>
@@ -8028,8 +8259,11 @@
       <c r="S77">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
@@ -8087,8 +8321,11 @@
       <c r="S78">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>123</v>
       </c>
@@ -8146,8 +8383,11 @@
       <c r="S79">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
@@ -8205,8 +8445,11 @@
       <c r="S80">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>123</v>
       </c>
@@ -8264,8 +8507,11 @@
       <c r="S81">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -8323,8 +8569,11 @@
       <c r="S82">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>123</v>
       </c>
@@ -8382,8 +8631,11 @@
       <c r="S83">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
@@ -8441,8 +8693,11 @@
       <c r="S84">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>123</v>
       </c>
@@ -8500,8 +8755,11 @@
       <c r="S85">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>123</v>
       </c>
@@ -8559,8 +8817,11 @@
       <c r="S86">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -8618,8 +8879,11 @@
       <c r="S87">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>123</v>
       </c>
@@ -8677,8 +8941,11 @@
       <c r="S88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
@@ -8736,8 +9003,11 @@
       <c r="S89">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>146</v>
       </c>
@@ -8795,8 +9065,11 @@
       <c r="S90">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>146</v>
       </c>
@@ -8854,8 +9127,11 @@
       <c r="S91">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>146</v>
       </c>
@@ -8913,8 +9189,11 @@
       <c r="S92">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
@@ -8972,8 +9251,11 @@
       <c r="S93">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
@@ -9031,8 +9313,11 @@
       <c r="S94">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -9090,8 +9375,11 @@
       <c r="S95">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>146</v>
       </c>
@@ -9149,8 +9437,11 @@
       <c r="S96">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>146</v>
       </c>
@@ -9208,8 +9499,11 @@
       <c r="S97">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3901158</v>
       </c>
@@ -9267,8 +9561,11 @@
       <c r="S98">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3901158</v>
       </c>
@@ -9326,8 +9623,11 @@
       <c r="S99">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
@@ -9385,8 +9685,11 @@
       <c r="S100">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>419</v>
       </c>
@@ -9444,8 +9747,11 @@
       <c r="S101">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4503334</v>
       </c>
@@ -9503,8 +9809,11 @@
       <c r="S102" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4503334</v>
       </c>
@@ -9562,8 +9871,11 @@
       <c r="S103" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4503438</v>
       </c>
@@ -9621,8 +9933,11 @@
       <c r="S104" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4503438</v>
       </c>
@@ -9680,8 +9995,11 @@
       <c r="S105" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4500609</v>
       </c>
@@ -9739,8 +10057,11 @@
       <c r="S106">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4500609</v>
       </c>
@@ -9798,8 +10119,11 @@
       <c r="S107">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4500609</v>
       </c>
@@ -9857,8 +10181,11 @@
       <c r="S108">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4500609</v>
       </c>
@@ -9916,8 +10243,11 @@
       <c r="S109">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4500609</v>
       </c>
@@ -9975,8 +10305,11 @@
       <c r="S110">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4500609</v>
       </c>
@@ -10034,8 +10367,11 @@
       <c r="S111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4503269</v>
       </c>
@@ -10093,8 +10429,11 @@
       <c r="S112">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4503269</v>
       </c>
@@ -10152,8 +10491,11 @@
       <c r="S113">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4503269</v>
       </c>
@@ -10211,8 +10553,11 @@
       <c r="S114">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4503269</v>
       </c>
@@ -10270,8 +10615,11 @@
       <c r="S115">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4503269</v>
       </c>
@@ -10329,8 +10677,11 @@
       <c r="S116">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4503269</v>
       </c>
@@ -10388,8 +10739,11 @@
       <c r="S117">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4503175</v>
       </c>
@@ -10447,8 +10801,11 @@
       <c r="S118" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4503175</v>
       </c>
@@ -10506,8 +10863,11 @@
       <c r="S119" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4503175</v>
       </c>
@@ -10565,8 +10925,11 @@
       <c r="S120" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4503175</v>
       </c>
@@ -10624,8 +10987,11 @@
       <c r="S121" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4503175</v>
       </c>
@@ -10683,8 +11049,11 @@
       <c r="S122" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4503175</v>
       </c>
@@ -10742,8 +11111,11 @@
       <c r="S123" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4503132</v>
       </c>
@@ -10801,8 +11173,11 @@
       <c r="S124">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4503132</v>
       </c>
@@ -10860,8 +11235,11 @@
       <c r="S125">
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4503551</v>
       </c>
@@ -10919,8 +11297,11 @@
       <c r="S126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4503551</v>
       </c>
@@ -10978,8 +11359,11 @@
       <c r="S127" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4503497</v>
       </c>
@@ -11037,8 +11421,11 @@
       <c r="S128">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4503497</v>
       </c>
@@ -11096,8 +11483,11 @@
       <c r="S129">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>403</v>
       </c>
@@ -11155,8 +11545,11 @@
       <c r="S130">
         <v>31</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -11214,8 +11607,11 @@
       <c r="S131">
         <v>31</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>442</v>
       </c>
@@ -11273,8 +11669,11 @@
       <c r="S132">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>442</v>
       </c>
@@ -11332,8 +11731,11 @@
       <c r="S133">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2601947</v>
       </c>
@@ -11391,8 +11793,11 @@
       <c r="S134">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2601947</v>
       </c>
@@ -11450,8 +11855,11 @@
       <c r="S135">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3600516</v>
       </c>
@@ -11509,8 +11917,11 @@
       <c r="S136">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3600516</v>
       </c>
@@ -11568,8 +11979,11 @@
       <c r="S137">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>312</v>
       </c>
@@ -11627,8 +12041,11 @@
       <c r="S138">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>312</v>
       </c>
@@ -11686,8 +12103,11 @@
       <c r="S139">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1900014</v>
       </c>
@@ -11745,8 +12165,11 @@
       <c r="S140">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1900014</v>
       </c>
@@ -11804,8 +12227,11 @@
       <c r="S141">
         <v>26</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1900014</v>
       </c>
@@ -11863,8 +12289,11 @@
       <c r="S142">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1900014</v>
       </c>
@@ -11922,8 +12351,11 @@
       <c r="S143">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>282</v>
       </c>
@@ -11981,8 +12413,11 @@
       <c r="S144" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -12040,8 +12475,11 @@
       <c r="S145" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>472</v>
       </c>
@@ -12099,8 +12537,11 @@
       <c r="S146" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>472</v>
       </c>
@@ -12158,8 +12599,11 @@
       <c r="S147" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1700283</v>
       </c>
@@ -12217,8 +12661,11 @@
       <c r="S148">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1700283</v>
       </c>
@@ -12276,8 +12723,11 @@
       <c r="S149">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1900322</v>
       </c>
@@ -12335,8 +12785,11 @@
       <c r="S150">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1900322</v>
       </c>
@@ -12394,8 +12847,11 @@
       <c r="S151">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1900359</v>
       </c>
@@ -12453,8 +12909,11 @@
       <c r="S152" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1900359</v>
       </c>
@@ -12512,8 +12971,11 @@
       <c r="S153" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2700062</v>
       </c>
@@ -12571,8 +13033,11 @@
       <c r="S154">
         <v>24</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2700062</v>
       </c>
@@ -12630,8 +13095,11 @@
       <c r="S155">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2700062</v>
       </c>
@@ -12689,8 +13157,11 @@
       <c r="S156">
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2700062</v>
       </c>
@@ -12748,8 +13219,11 @@
       <c r="S157">
         <v>24</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1900952</v>
       </c>
@@ -12807,8 +13281,11 @@
       <c r="S158" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1900952</v>
       </c>
@@ -12866,8 +13343,11 @@
       <c r="S159" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1900952</v>
       </c>
@@ -12925,8 +13405,11 @@
       <c r="S160" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1900952</v>
       </c>
@@ -12984,8 +13467,11 @@
       <c r="S161" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>289</v>
       </c>
@@ -13043,8 +13529,11 @@
       <c r="S162">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>289</v>
       </c>
@@ -13102,8 +13591,11 @@
       <c r="S163">
         <v>24</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3700070</v>
       </c>
@@ -13161,8 +13653,11 @@
       <c r="S164" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>3700070</v>
       </c>
@@ -13220,8 +13715,11 @@
       <c r="S165" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1900097</v>
       </c>
@@ -13279,8 +13777,11 @@
       <c r="S166" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1900097</v>
       </c>
@@ -13338,8 +13839,11 @@
       <c r="S167" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T167">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3700156</v>
       </c>
@@ -13397,8 +13901,11 @@
       <c r="S168">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T168">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3700156</v>
       </c>
@@ -13456,8 +13963,11 @@
       <c r="S169">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T169">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1700573</v>
       </c>
@@ -13515,8 +14025,11 @@
       <c r="S170" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T170">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1700573</v>
       </c>
@@ -13574,8 +14087,11 @@
       <c r="S171" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T171">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2700302</v>
       </c>
@@ -13633,8 +14149,11 @@
       <c r="S172" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T172">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2700302</v>
       </c>
@@ -13692,8 +14211,11 @@
       <c r="S173" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T173">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3000215</v>
       </c>
@@ -13751,8 +14273,11 @@
       <c r="S174">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>3000215</v>
       </c>
@@ -13810,8 +14335,11 @@
       <c r="S175">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3000215</v>
       </c>
@@ -13869,8 +14397,11 @@
       <c r="S176">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T176">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3000215</v>
       </c>
@@ -13928,8 +14459,11 @@
       <c r="S177">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T177">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3603460</v>
       </c>
@@ -13987,8 +14521,11 @@
       <c r="S178" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T178">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3603460</v>
       </c>
@@ -14046,8 +14583,11 @@
       <c r="S179" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3600270</v>
       </c>
@@ -14105,8 +14645,11 @@
       <c r="S180">
         <v>26</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T180">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3600270</v>
       </c>
@@ -14164,8 +14707,11 @@
       <c r="S181">
         <v>26</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T181">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3600270</v>
       </c>
@@ -14223,8 +14769,11 @@
       <c r="S182">
         <v>26</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T182">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3600270</v>
       </c>
@@ -14282,8 +14831,11 @@
       <c r="S183">
         <v>26</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T183">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3600270</v>
       </c>
@@ -14341,8 +14893,11 @@
       <c r="S184">
         <v>26</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T184">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3600270</v>
       </c>
@@ -14400,8 +14955,11 @@
       <c r="S185">
         <v>26</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T185">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3600270</v>
       </c>
@@ -14459,8 +15017,11 @@
       <c r="S186">
         <v>26</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T186">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3600270</v>
       </c>
@@ -14518,8 +15079,11 @@
       <c r="S187">
         <v>26</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T187">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3000012</v>
       </c>
@@ -14577,8 +15141,11 @@
       <c r="S188" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T188">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3000012</v>
       </c>
@@ -14636,8 +15203,11 @@
       <c r="S189" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T189">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3000012</v>
       </c>
@@ -14695,8 +15265,11 @@
       <c r="S190" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3000012</v>
       </c>
@@ -14754,8 +15327,11 @@
       <c r="S191" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T191">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3608484</v>
       </c>
@@ -14813,8 +15389,11 @@
       <c r="S192">
         <v>11</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T192">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3608484</v>
       </c>
@@ -14872,8 +15451,11 @@
       <c r="S193">
         <v>11</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T193">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3608484</v>
       </c>
@@ -14931,8 +15513,11 @@
       <c r="S194">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T194">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3608484</v>
       </c>
@@ -14990,8 +15575,11 @@
       <c r="S195">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T195">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3608284</v>
       </c>
@@ -15049,8 +15637,11 @@
       <c r="S196">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T196">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3608284</v>
       </c>
@@ -15108,8 +15699,11 @@
       <c r="S197">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T197">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3608284</v>
       </c>
@@ -15167,8 +15761,11 @@
       <c r="S198">
         <v>19</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T198">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3608284</v>
       </c>
@@ -15226,8 +15823,11 @@
       <c r="S199">
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3605205</v>
       </c>
@@ -15285,8 +15885,11 @@
       <c r="S200" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T200">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3605205</v>
       </c>
@@ -15344,8 +15947,11 @@
       <c r="S201" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3608877</v>
       </c>
@@ -15403,8 +16009,11 @@
       <c r="S202" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T202">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3608877</v>
       </c>
@@ -15462,8 +16071,11 @@
       <c r="S203" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T203">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3607474</v>
       </c>
@@ -15521,8 +16133,11 @@
       <c r="S204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T204">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3607474</v>
       </c>
@@ -15580,8 +16195,11 @@
       <c r="S205">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T205">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3000041</v>
       </c>
@@ -15639,8 +16257,11 @@
       <c r="S206" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T206">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3000041</v>
       </c>
@@ -15698,8 +16319,11 @@
       <c r="S207" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T207">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1800019</v>
       </c>
@@ -15757,8 +16381,11 @@
       <c r="S208">
         <v>23</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T208">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1800019</v>
       </c>
@@ -15816,8 +16443,11 @@
       <c r="S209">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T209">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1700490</v>
       </c>
@@ -15875,8 +16505,11 @@
       <c r="S210">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T210">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1700490</v>
       </c>
@@ -15934,8 +16567,11 @@
       <c r="S211">
         <v>22</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T211">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3600195</v>
       </c>
@@ -15993,8 +16629,11 @@
       <c r="S212">
         <v>24</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T212">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3600195</v>
       </c>
@@ -16052,8 +16691,11 @@
       <c r="S213">
         <v>24</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T213">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3600195</v>
       </c>
@@ -16111,8 +16753,11 @@
       <c r="S214">
         <v>24</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T214">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3600195</v>
       </c>
@@ -16170,8 +16815,11 @@
       <c r="S215">
         <v>24</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T215">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3600195</v>
       </c>
@@ -16229,8 +16877,11 @@
       <c r="S216">
         <v>24</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T216">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3600195</v>
       </c>
@@ -16288,8 +16939,11 @@
       <c r="S217">
         <v>24</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T217">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>624</v>
       </c>
@@ -16347,8 +17001,11 @@
       <c r="S218" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T218">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>624</v>
       </c>
@@ -16406,8 +17063,11 @@
       <c r="S219" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2700284</v>
       </c>
@@ -16465,8 +17125,11 @@
       <c r="S220">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T220">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2700284</v>
       </c>
@@ -16524,8 +17187,11 @@
       <c r="S221">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T221">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>337</v>
       </c>
@@ -16583,8 +17249,11 @@
       <c r="S222">
         <v>26</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T222">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>337</v>
       </c>
@@ -16642,8 +17311,11 @@
       <c r="S223">
         <v>26</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T223">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
@@ -16701,8 +17373,11 @@
       <c r="S224" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T224">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -16760,8 +17435,11 @@
       <c r="S225" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T225">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2700243</v>
       </c>
@@ -16819,8 +17497,11 @@
       <c r="S226">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T226">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2700243</v>
       </c>
@@ -16878,8 +17559,11 @@
       <c r="S227">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T227">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1901007</v>
       </c>
@@ -16937,8 +17621,11 @@
       <c r="S228">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T228">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1901007</v>
       </c>
@@ -16996,8 +17683,11 @@
       <c r="S229">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T229">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>190</v>
       </c>
@@ -17055,8 +17745,11 @@
       <c r="S230">
         <v>15</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T230">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>190</v>
       </c>
@@ -17114,8 +17807,11 @@
       <c r="S231">
         <v>15</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T231">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1901013</v>
       </c>
@@ -17173,8 +17869,11 @@
       <c r="S232">
         <v>10</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T232">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1901013</v>
       </c>
@@ -17232,8 +17931,11 @@
       <c r="S233">
         <v>10</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T233">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1900006</v>
       </c>
@@ -17291,8 +17993,11 @@
       <c r="S234">
         <v>31</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T234">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1900006</v>
       </c>
@@ -17350,8 +18055,11 @@
       <c r="S235">
         <v>31</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T235">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2700251</v>
       </c>
@@ -17409,8 +18117,11 @@
       <c r="S236">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T236">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2700251</v>
       </c>
@@ -17468,8 +18179,11 @@
       <c r="S237">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T237">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1900046</v>
       </c>
@@ -17527,8 +18241,11 @@
       <c r="S238">
         <v>25</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T238">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1900046</v>
       </c>
@@ -17586,8 +18303,11 @@
       <c r="S239">
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T239">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1900046</v>
       </c>
@@ -17645,8 +18365,11 @@
       <c r="S240">
         <v>25</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T240">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1900046</v>
       </c>
@@ -17704,8 +18427,11 @@
       <c r="S241">
         <v>25</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T241">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1900046</v>
       </c>
@@ -17763,8 +18489,11 @@
       <c r="S242">
         <v>25</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T242">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1900046</v>
       </c>
@@ -17822,8 +18551,11 @@
       <c r="S243">
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T243">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1900588</v>
       </c>
@@ -17881,8 +18613,11 @@
       <c r="S244">
         <v>16</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T244">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1900588</v>
       </c>
@@ -17940,8 +18675,11 @@
       <c r="S245">
         <v>16</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T245">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2700338</v>
       </c>
@@ -17999,8 +18737,11 @@
       <c r="S246" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T246">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2700338</v>
       </c>
@@ -18058,8 +18799,11 @@
       <c r="S247" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T247">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1700218</v>
       </c>
@@ -18117,8 +18861,11 @@
       <c r="S248">
         <v>16</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1700218</v>
       </c>
@@ -18176,8 +18923,11 @@
       <c r="S249">
         <v>16</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T249">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>444</v>
       </c>
@@ -18235,8 +18985,11 @@
       <c r="S250" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T250">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4000021</v>
       </c>
@@ -18294,8 +19047,11 @@
       <c r="S251">
         <v>26</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T251">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4000021</v>
       </c>
@@ -18353,8 +19109,11 @@
       <c r="S252">
         <v>26</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T252">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4000021</v>
       </c>
@@ -18412,8 +19171,11 @@
       <c r="S253">
         <v>26</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T253">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4000021</v>
       </c>
@@ -18471,8 +19233,11 @@
       <c r="S254">
         <v>26</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T254">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>466</v>
       </c>
@@ -18530,8 +19295,11 @@
       <c r="S255">
         <v>16</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T255">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>466</v>
       </c>
@@ -18589,8 +19357,11 @@
       <c r="S256">
         <v>16</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T256">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4003183</v>
       </c>
@@ -18648,8 +19419,11 @@
       <c r="S257" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T257">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4003183</v>
       </c>
@@ -18707,8 +19481,11 @@
       <c r="S258" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T258">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4003183</v>
       </c>
@@ -18766,8 +19543,11 @@
       <c r="S259" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T259">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4003183</v>
       </c>
@@ -18825,8 +19605,11 @@
       <c r="S260" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T260">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4000022</v>
       </c>
@@ -18884,8 +19667,11 @@
       <c r="S261">
         <v>10</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T261">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4000022</v>
       </c>
@@ -18943,8 +19729,11 @@
       <c r="S262">
         <v>10</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T262">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1500087</v>
       </c>
@@ -19002,8 +19791,11 @@
       <c r="S263" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T263">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1500087</v>
       </c>
@@ -19061,8 +19853,11 @@
       <c r="S264" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T264">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1500112</v>
       </c>
@@ -19120,8 +19915,11 @@
       <c r="S265" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T265">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1500112</v>
       </c>
@@ -19179,8 +19977,11 @@
       <c r="S266" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T266">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1500062</v>
       </c>
@@ -19238,8 +20039,11 @@
       <c r="S267">
         <v>26</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T267">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1500062</v>
       </c>
@@ -19297,8 +20101,11 @@
       <c r="S268">
         <v>26</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T268">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1500062</v>
       </c>
@@ -19356,8 +20163,11 @@
       <c r="S269">
         <v>26</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T269">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1500062</v>
       </c>
@@ -19415,8 +20225,11 @@
       <c r="S270">
         <v>26</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T270">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>566</v>
       </c>
@@ -19474,8 +20287,11 @@
       <c r="S271" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T271">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>566</v>
       </c>
@@ -19533,8 +20349,11 @@
       <c r="S272" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T272">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>566</v>
       </c>
@@ -19592,8 +20411,11 @@
       <c r="S273" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T273">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>566</v>
       </c>
@@ -19651,8 +20473,11 @@
       <c r="S274" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T274">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>566</v>
       </c>
@@ -19710,8 +20535,11 @@
       <c r="S275" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T275">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>566</v>
       </c>
@@ -19769,8 +20597,11 @@
       <c r="S276" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T276">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>566</v>
       </c>
@@ -19828,8 +20659,11 @@
       <c r="S277" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T277">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>566</v>
       </c>
@@ -19887,8 +20721,11 @@
       <c r="S278" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T278">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>178</v>
       </c>
@@ -19946,8 +20783,11 @@
       <c r="S279">
         <v>18</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T279">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>178</v>
       </c>
@@ -20005,8 +20845,11 @@
       <c r="S280">
         <v>18</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T280">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>173</v>
       </c>
@@ -20064,8 +20907,11 @@
       <c r="S281" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T281">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>173</v>
       </c>
@@ -20123,8 +20969,11 @@
       <c r="S282" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T282">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>3100212</v>
       </c>
@@ -20182,8 +21031,11 @@
       <c r="S283">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T283">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3100212</v>
       </c>
@@ -20241,8 +21093,11 @@
       <c r="S284">
         <v>21</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T284">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3100212</v>
       </c>
@@ -20300,8 +21155,11 @@
       <c r="S285">
         <v>21</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T285">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3100212</v>
       </c>
@@ -20359,8 +21217,11 @@
       <c r="S286">
         <v>21</v>
       </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T286">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3101235</v>
       </c>
@@ -20418,8 +21279,11 @@
       <c r="S287">
         <v>30</v>
       </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T287">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3101235</v>
       </c>
@@ -20477,8 +21341,11 @@
       <c r="S288">
         <v>30</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T288">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3101235</v>
       </c>
@@ -20536,8 +21403,11 @@
       <c r="S289">
         <v>30</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T289">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3101235</v>
       </c>
@@ -20595,8 +21465,11 @@
       <c r="S290">
         <v>30</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T290">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5400037</v>
       </c>
@@ -20654,8 +21527,11 @@
       <c r="S291">
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T291">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>5400037</v>
       </c>
@@ -20713,8 +21589,11 @@
       <c r="S292">
         <v>16</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T292">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>5400168</v>
       </c>
@@ -20772,8 +21651,11 @@
       <c r="S293">
         <v>11</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>5400168</v>
       </c>
@@ -20831,8 +21713,11 @@
       <c r="S294">
         <v>11</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T294">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>5400053</v>
       </c>
@@ -20890,8 +21775,11 @@
       <c r="S295">
         <v>12</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T295">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>5400053</v>
       </c>
@@ -20949,8 +21837,11 @@
       <c r="S296">
         <v>12</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T296">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>5400319</v>
       </c>
@@ -21008,8 +21899,11 @@
       <c r="S297">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T297">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>5400319</v>
       </c>
@@ -21067,8 +21961,11 @@
       <c r="S298">
         <v>13</v>
       </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T298">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>5400018</v>
       </c>
@@ -21126,8 +22023,11 @@
       <c r="S299">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>5400018</v>
       </c>
@@ -21185,8 +22085,11 @@
       <c r="S300">
         <v>20</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T300">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5400018</v>
       </c>
@@ -21244,8 +22147,11 @@
       <c r="S301">
         <v>20</v>
       </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T301">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5400018</v>
       </c>
@@ -21303,8 +22209,11 @@
       <c r="S302">
         <v>20</v>
       </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T302">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3300166</v>
       </c>
@@ -21362,8 +22271,11 @@
       <c r="S303">
         <v>12</v>
       </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T303">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3300166</v>
       </c>
@@ -21421,8 +22333,11 @@
       <c r="S304">
         <v>12</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T304">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3300166</v>
       </c>
@@ -21480,8 +22395,11 @@
       <c r="S305">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T305">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3300166</v>
       </c>
@@ -21539,8 +22457,11 @@
       <c r="S306">
         <v>12</v>
       </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T306">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3300166</v>
       </c>
@@ -21598,8 +22519,11 @@
       <c r="S307">
         <v>12</v>
       </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T307">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3300166</v>
       </c>
@@ -21657,8 +22581,11 @@
       <c r="S308">
         <v>12</v>
       </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T308">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3300166</v>
       </c>
@@ -21716,8 +22643,11 @@
       <c r="S309">
         <v>12</v>
       </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3300166</v>
       </c>
@@ -21775,8 +22705,11 @@
       <c r="S310">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T310">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3300166</v>
       </c>
@@ -21834,8 +22767,11 @@
       <c r="S311">
         <v>12</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T311">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3300166</v>
       </c>
@@ -21893,8 +22829,11 @@
       <c r="S312">
         <v>12</v>
       </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T312">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3300127</v>
       </c>
@@ -21952,8 +22891,11 @@
       <c r="S313" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T313">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3300127</v>
       </c>
@@ -22011,8 +22953,11 @@
       <c r="S314" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T314">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3300127</v>
       </c>
@@ -22070,8 +23015,11 @@
       <c r="S315" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T315">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3300127</v>
       </c>
@@ -22129,8 +23077,11 @@
       <c r="S316" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T316">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3300127</v>
       </c>
@@ -22188,8 +23139,11 @@
       <c r="S317" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T317">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3300127</v>
       </c>
@@ -22247,8 +23201,11 @@
       <c r="S318" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T318">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3300127</v>
       </c>
@@ -22306,8 +23263,11 @@
       <c r="S319" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T319">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3300127</v>
       </c>
@@ -22365,8 +23325,11 @@
       <c r="S320" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T320">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3300127</v>
       </c>
@@ -22424,8 +23387,11 @@
       <c r="S321" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T321">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3300127</v>
       </c>
@@ -22483,8 +23449,11 @@
       <c r="S322" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T322">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3300127</v>
       </c>
@@ -22542,8 +23511,11 @@
       <c r="S323" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T323">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3300127</v>
       </c>
@@ -22601,8 +23573,11 @@
       <c r="S324" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T324">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3300127</v>
       </c>
@@ -22660,8 +23635,11 @@
       <c r="S325" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T325">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3300127</v>
       </c>
@@ -22719,8 +23697,11 @@
       <c r="S326" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T326">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3300108</v>
       </c>
@@ -22778,8 +23759,11 @@
       <c r="S327" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T327">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3300108</v>
       </c>
@@ -22837,8 +23821,11 @@
       <c r="S328" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T328">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3300108</v>
       </c>
@@ -22896,8 +23883,11 @@
       <c r="S329" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T329">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3300108</v>
       </c>
@@ -22955,8 +23945,11 @@
       <c r="S330" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T330">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3300108</v>
       </c>
@@ -23014,8 +24007,11 @@
       <c r="S331" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T331">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3300108</v>
       </c>
@@ -23073,8 +24069,11 @@
       <c r="S332" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T332">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3300108</v>
       </c>
@@ -23132,8 +24131,11 @@
       <c r="S333" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T333">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3300108</v>
       </c>
@@ -23191,8 +24193,11 @@
       <c r="S334" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T334">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3300108</v>
       </c>
@@ -23250,8 +24255,11 @@
       <c r="S335" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T335">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3300108</v>
       </c>
@@ -23309,8 +24317,11 @@
       <c r="S336" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3300108</v>
       </c>
@@ -23368,8 +24379,11 @@
       <c r="S337" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T337">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3300108</v>
       </c>
@@ -23427,8 +24441,11 @@
       <c r="S338" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T338">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3300108</v>
       </c>
@@ -23486,8 +24503,11 @@
       <c r="S339" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T339">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3300108</v>
       </c>
@@ -23545,8 +24565,11 @@
       <c r="S340" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T340">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3300108</v>
       </c>
@@ -23604,8 +24627,11 @@
       <c r="S341" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3300108</v>
       </c>
@@ -23663,8 +24689,11 @@
       <c r="S342" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T342">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3300181</v>
       </c>
@@ -23722,8 +24751,11 @@
       <c r="S343">
         <v>16</v>
       </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3300181</v>
       </c>
@@ -23781,8 +24813,11 @@
       <c r="S344">
         <v>16</v>
       </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T344">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3300181</v>
       </c>
@@ -23840,8 +24875,11 @@
       <c r="S345">
         <v>16</v>
       </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T345">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3300181</v>
       </c>
@@ -23899,8 +24937,11 @@
       <c r="S346">
         <v>16</v>
       </c>
-    </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T346">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3300181</v>
       </c>
@@ -23958,8 +24999,11 @@
       <c r="S347">
         <v>16</v>
       </c>
-    </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T347">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3300181</v>
       </c>
@@ -24017,8 +25061,11 @@
       <c r="S348">
         <v>16</v>
       </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T348">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3300181</v>
       </c>
@@ -24076,8 +25123,11 @@
       <c r="S349">
         <v>16</v>
       </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T349">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3300181</v>
       </c>
@@ -24135,8 +25185,11 @@
       <c r="S350">
         <v>16</v>
       </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T350">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3300181</v>
       </c>
@@ -24194,8 +25247,11 @@
       <c r="S351">
         <v>16</v>
       </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T351">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3300181</v>
       </c>
@@ -24253,8 +25309,11 @@
       <c r="S352">
         <v>16</v>
       </c>
-    </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T352">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3300181</v>
       </c>
@@ -24312,8 +25371,11 @@
       <c r="S353">
         <v>16</v>
       </c>
-    </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3300181</v>
       </c>
@@ -24371,8 +25433,11 @@
       <c r="S354">
         <v>16</v>
       </c>
-    </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3300181</v>
       </c>
@@ -24430,8 +25495,11 @@
       <c r="S355">
         <v>16</v>
       </c>
-    </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T355">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3300181</v>
       </c>
@@ -24489,8 +25557,11 @@
       <c r="S356">
         <v>16</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T356">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3300151</v>
       </c>
@@ -24548,8 +25619,11 @@
       <c r="S357">
         <v>23</v>
       </c>
-    </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3300151</v>
       </c>
@@ -24607,8 +25681,11 @@
       <c r="S358">
         <v>23</v>
       </c>
-    </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T358">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1200065</v>
       </c>
@@ -24666,8 +25743,11 @@
       <c r="S359">
         <v>12</v>
       </c>
-    </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T359">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1200065</v>
       </c>
@@ -24725,8 +25805,11 @@
       <c r="S360">
         <v>12</v>
       </c>
-    </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T360">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>4700588</v>
       </c>
@@ -24784,8 +25867,11 @@
       <c r="S361" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T361">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4700588</v>
       </c>
@@ -24843,8 +25929,11 @@
       <c r="S362" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T362">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2000044</v>
       </c>
@@ -24902,8 +25991,11 @@
       <c r="S363">
         <v>24</v>
       </c>
-    </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T363">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2000044</v>
       </c>
@@ -24961,8 +26053,11 @@
       <c r="S364">
         <v>24</v>
       </c>
-    </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T364">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2000044</v>
       </c>
@@ -25020,8 +26115,11 @@
       <c r="S365">
         <v>24</v>
       </c>
-    </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T365">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2000044</v>
       </c>
@@ -25079,8 +26177,11 @@
       <c r="S366">
         <v>24</v>
       </c>
-    </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T366">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2000044</v>
       </c>
@@ -25138,8 +26239,11 @@
       <c r="S367">
         <v>24</v>
       </c>
-    </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T367">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2000044</v>
       </c>
@@ -25197,8 +26301,11 @@
       <c r="S368">
         <v>24</v>
       </c>
-    </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T368">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2000038</v>
       </c>
@@ -25256,8 +26363,11 @@
       <c r="S369">
         <v>26</v>
       </c>
-    </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2000038</v>
       </c>
@@ -25315,8 +26425,11 @@
       <c r="S370">
         <v>26</v>
       </c>
-    </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T370">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2000022</v>
       </c>
@@ -25374,8 +26487,11 @@
       <c r="S371" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2000022</v>
       </c>
@@ -25433,8 +26549,11 @@
       <c r="S372" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T372">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2000022</v>
       </c>
@@ -25492,8 +26611,11 @@
       <c r="S373" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T373">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2000022</v>
       </c>
@@ -25551,8 +26673,11 @@
       <c r="S374" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T374">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2000022</v>
       </c>
@@ -25610,8 +26735,11 @@
       <c r="S375" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T375">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2000022</v>
       </c>
@@ -25669,8 +26797,11 @@
       <c r="S376" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T376">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2002964</v>
       </c>
@@ -25728,8 +26859,11 @@
       <c r="S377">
         <v>25</v>
       </c>
-    </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T377">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2002964</v>
       </c>
@@ -25787,8 +26921,11 @@
       <c r="S378">
         <v>25</v>
       </c>
-    </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T378">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2002964</v>
       </c>
@@ -25846,8 +26983,11 @@
       <c r="S379">
         <v>25</v>
       </c>
-    </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T379">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2002964</v>
       </c>
@@ -25905,8 +27045,11 @@
       <c r="S380">
         <v>25</v>
       </c>
-    </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T380">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2002964</v>
       </c>
@@ -25964,8 +27107,11 @@
       <c r="S381">
         <v>25</v>
       </c>
-    </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T381">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2002964</v>
       </c>
@@ -26023,8 +27169,11 @@
       <c r="S382">
         <v>25</v>
       </c>
-    </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T382">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1102161</v>
       </c>
@@ -26082,8 +27231,11 @@
       <c r="S383" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T383">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1102161</v>
       </c>
@@ -26141,8 +27293,11 @@
       <c r="S384" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T384">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1102161</v>
       </c>
@@ -26200,8 +27355,11 @@
       <c r="S385" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T385">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1102161</v>
       </c>
@@ -26259,8 +27417,11 @@
       <c r="S386" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T386">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2103404</v>
       </c>
@@ -26318,8 +27479,11 @@
       <c r="S387" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T387">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2103404</v>
       </c>
@@ -26377,8 +27541,11 @@
       <c r="S388" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T388">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2103404</v>
       </c>
@@ -26436,8 +27603,11 @@
       <c r="S389" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T389">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2103404</v>
       </c>
@@ -26495,8 +27665,11 @@
       <c r="S390" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T390">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5500008</v>
       </c>
@@ -26554,8 +27727,11 @@
       <c r="S391">
         <v>27</v>
       </c>
-    </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T391">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>5500008</v>
       </c>
@@ -26613,8 +27789,11 @@
       <c r="S392">
         <v>27</v>
       </c>
-    </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T392">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
     </row>
   </sheetData>
